--- a/pool_dialout/other/dialout_scaling.xlsx
+++ b/pool_dialout/other/dialout_scaling.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
   <si>
     <t>AmeR</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>~Runtime (hr)</t>
+  </si>
+  <si>
+    <t>NOR</t>
   </si>
 </sst>
 </file>
@@ -139,8 +142,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -152,13 +159,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -196,10 +207,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>240389.0</c:v>
                 </c:pt>
@@ -229,16 +240,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>144925.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.496336E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.307217E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:f>Sheet1!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1985.0</c:v>
                 </c:pt>
@@ -268,6 +285,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>743.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>317739.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>409364.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -282,11 +305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112842920"/>
-        <c:axId val="2112763544"/>
+        <c:axId val="-2144456968"/>
+        <c:axId val="-2144455160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112842920"/>
+        <c:axId val="-2144456968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -296,12 +319,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112763544"/>
+        <c:crossAx val="-2144455160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112763544"/>
+        <c:axId val="-2144455160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -312,7 +335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112842920"/>
+        <c:crossAx val="-2144456968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -686,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -851,36 +874,128 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="C12" s="1" t="s">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>1496336</v>
+      </c>
+      <c r="D18">
+        <v>317739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>2307217</v>
+      </c>
+      <c r="D20">
+        <v>409364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D25" s="1">
         <f>LINEST(D2:D11,C2:C11)</f>
         <v>2.1864081440392362E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+    <row r="26" spans="1:4">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+    <row r="29" spans="1:4">
+      <c r="A29">
         <v>1000000</v>
       </c>
-      <c r="B16">
-        <f>((A16*D12)/60)/60</f>
+      <c r="B29">
+        <f>((A29*D25)/60)/60</f>
         <v>6.0733559556645442</v>
       </c>
     </row>

--- a/pool_dialout/other/dialout_scaling.xlsx
+++ b/pool_dialout/other/dialout_scaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16840" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="16840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>AmeR</t>
   </si>
@@ -73,19 +73,16 @@
     <t>Pool</t>
   </si>
   <si>
-    <t>Library Size</t>
-  </si>
-  <si>
-    <t>PREDICTED</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>~Runtime (hr)</t>
-  </si>
-  <si>
     <t>NOR</t>
+  </si>
+  <si>
+    <t>Runtime (hr)</t>
+  </si>
+  <si>
+    <t>Runtime Opt (hr)</t>
+  </si>
+  <si>
+    <t>Runtime Opt</t>
   </si>
 </sst>
 </file>
@@ -305,11 +302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144456968"/>
-        <c:axId val="-2144455160"/>
+        <c:axId val="2118446984"/>
+        <c:axId val="2118448792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144456968"/>
+        <c:axId val="2118446984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -319,12 +316,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144455160"/>
+        <c:crossAx val="2118448792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144455160"/>
+        <c:axId val="2118448792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -335,7 +332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144456968"/>
+        <c:crossAx val="2118446984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -356,16 +353,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -709,19 +706,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -732,8 +733,17 @@
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -746,8 +756,16 @@
       <c r="D2">
         <v>1985</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2">
+        <f>(D2/60)/60</f>
+        <v>0.55138888888888893</v>
+      </c>
+      <c r="G2">
+        <f>(E2/60)/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -760,8 +778,16 @@
       <c r="D3">
         <v>4769</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <f t="shared" ref="F3:G21" si="0">(D3/60)/60</f>
+        <v>1.3247222222222221</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -774,8 +800,16 @@
       <c r="D4">
         <v>6884</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.9122222222222223</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -788,8 +822,16 @@
       <c r="D5">
         <v>4066</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1.1294444444444445</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -802,8 +844,16 @@
       <c r="D6">
         <v>5588</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.5522222222222224</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -816,8 +866,16 @@
       <c r="D7">
         <v>3506</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.9738888888888888</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -830,8 +888,16 @@
       <c r="D8">
         <v>2380</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.66111111111111109</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -844,8 +910,16 @@
       <c r="D9">
         <v>2183</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.60638888888888887</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -858,8 +932,16 @@
       <c r="D10">
         <v>4646</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1.2905555555555557</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -872,61 +954,117 @@
       <c r="D11">
         <v>743</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.20638888888888887</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>1496336</v>
@@ -934,21 +1072,37 @@
       <c r="D18">
         <v>317739</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>88.260833333333323</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>2307217</v>
@@ -956,48 +1110,44 @@
       <c r="D20">
         <v>409364</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>113.71222222222222</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="C25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="1">
-        <f>LINEST(D2:D11,C2:C11)</f>
-        <v>2.1864081440392362E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>1000000</v>
-      </c>
-      <c r="B29">
-        <f>((A29*D25)/60)/60</f>
-        <v>6.0733559556645442</v>
-      </c>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
